--- a/Code/Results/Cases/Case_1_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1992499629613036</v>
+        <v>0.06373535780666373</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06491358664199254</v>
+        <v>0.1105622423820307</v>
       </c>
       <c r="E2">
-        <v>0.06949863395447764</v>
+        <v>0.1305095714418165</v>
       </c>
       <c r="F2">
-        <v>1.28669502850623</v>
+        <v>2.062054749532066</v>
       </c>
       <c r="G2">
-        <v>1.00480714449877</v>
+        <v>1.404779461910749</v>
       </c>
       <c r="H2">
-        <v>0.6669774735408964</v>
+        <v>1.29316765982486</v>
       </c>
       <c r="I2">
-        <v>0.3616995299805126</v>
+        <v>0.7094912232465749</v>
       </c>
       <c r="J2">
-        <v>0.09145512346891138</v>
+        <v>0.1770687509714222</v>
       </c>
       <c r="K2">
-        <v>2.110760283998843</v>
+        <v>0.8560735063490768</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5165406436912292</v>
+        <v>0.332965455317364</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.174506907536454</v>
+        <v>0.05564371336471652</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05855988745577889</v>
+        <v>0.1092753594752054</v>
       </c>
       <c r="E3">
-        <v>0.06520303661390159</v>
+        <v>0.1301264615969799</v>
       </c>
       <c r="F3">
-        <v>1.221117051947346</v>
+        <v>2.059943352326599</v>
       </c>
       <c r="G3">
-        <v>0.9476908557757326</v>
+        <v>1.400981167369281</v>
       </c>
       <c r="H3">
-        <v>0.6491152732977383</v>
+        <v>1.297244483789953</v>
       </c>
       <c r="I3">
-        <v>0.3776200372790122</v>
+        <v>0.7176417261615775</v>
       </c>
       <c r="J3">
-        <v>0.08805541000402783</v>
+        <v>0.1773339975732675</v>
       </c>
       <c r="K3">
-        <v>1.829047754143119</v>
+        <v>0.7776106007464989</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4497213666579185</v>
+        <v>0.3159326368201292</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1592922689789162</v>
+        <v>0.05066315748612737</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05469920602852341</v>
+        <v>0.1085178633983261</v>
       </c>
       <c r="E4">
-        <v>0.06265098413434345</v>
+        <v>0.1299431200080612</v>
       </c>
       <c r="F4">
-        <v>1.183400428435831</v>
+        <v>2.059791149125132</v>
       </c>
       <c r="G4">
-        <v>0.9148953491440039</v>
+        <v>1.399551506373555</v>
       </c>
       <c r="H4">
-        <v>0.6394304120609888</v>
+        <v>1.300375854579613</v>
       </c>
       <c r="I4">
-        <v>0.3881010016855111</v>
+        <v>0.7229778924830352</v>
       </c>
       <c r="J4">
-        <v>0.08612057745322588</v>
+        <v>0.1775772976281544</v>
       </c>
       <c r="K4">
-        <v>1.657136813589602</v>
+        <v>0.7296589774029485</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4090698857155246</v>
+        <v>0.3056180672578677</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1530850751599075</v>
+        <v>0.04863061858779361</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05313528559363334</v>
+        <v>0.1082174330743513</v>
       </c>
       <c r="E5">
-        <v>0.06163126130788044</v>
+        <v>0.1298814747469059</v>
       </c>
       <c r="F5">
-        <v>1.168631743856409</v>
+        <v>2.06001658751758</v>
       </c>
       <c r="G5">
-        <v>0.9020646793782277</v>
+        <v>1.399195413742618</v>
       </c>
       <c r="H5">
-        <v>0.6357888944176295</v>
+        <v>1.301809805250599</v>
       </c>
       <c r="I5">
-        <v>0.3925440832621838</v>
+        <v>0.7252357971763725</v>
       </c>
       <c r="J5">
-        <v>0.08536844524860143</v>
+        <v>0.1776966719224262</v>
       </c>
       <c r="K5">
-        <v>1.587300383002543</v>
+        <v>0.7101752811983602</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3925862293758442</v>
+        <v>0.3014510367023249</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1520539046393594</v>
+        <v>0.04829294528398975</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05287613810388336</v>
+        <v>0.1081680467620174</v>
       </c>
       <c r="E6">
-        <v>0.06146312614800564</v>
+        <v>0.1298720284591361</v>
       </c>
       <c r="F6">
-        <v>1.166214608565198</v>
+        <v>2.060071375975483</v>
       </c>
       <c r="G6">
-        <v>0.8999653260335094</v>
+        <v>1.399149952486127</v>
       </c>
       <c r="H6">
-        <v>0.6352021655225428</v>
+        <v>1.302057445912453</v>
       </c>
       <c r="I6">
-        <v>0.3932920882170237</v>
+        <v>0.7256157548817654</v>
       </c>
       <c r="J6">
-        <v>0.08524569089872713</v>
+        <v>0.1777177156588969</v>
       </c>
       <c r="K6">
-        <v>1.575715954474646</v>
+        <v>0.7069434824305461</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3898537469516441</v>
+        <v>0.3007612968267708</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1592085872576376</v>
+        <v>0.05063575757456817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05467807771937316</v>
+        <v>0.1085137782050225</v>
       </c>
       <c r="E7">
-        <v>0.06263715133900405</v>
+        <v>0.1299422357000459</v>
       </c>
       <c r="F7">
-        <v>1.183198869451218</v>
+        <v>2.059793025888609</v>
       </c>
       <c r="G7">
-        <v>0.9147201976505954</v>
+        <v>1.399545787454102</v>
       </c>
       <c r="H7">
-        <v>0.6393800879446587</v>
+        <v>1.300394554141619</v>
       </c>
       <c r="I7">
-        <v>0.3881602331927532</v>
+        <v>0.7230080058556414</v>
       </c>
       <c r="J7">
-        <v>0.08611028945927757</v>
+        <v>0.1775788256498565</v>
       </c>
       <c r="K7">
-        <v>1.656194151126527</v>
+        <v>0.7293959821861336</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4088472644650949</v>
+        <v>0.3055617223321718</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.190722243038806</v>
+        <v>0.0609479947546987</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06271389064576027</v>
+        <v>0.1101117733029753</v>
       </c>
       <c r="E8">
-        <v>0.0679990087789939</v>
+        <v>0.1303667170214169</v>
       </c>
       <c r="F8">
-        <v>1.263530100517286</v>
+        <v>2.061089099000938</v>
       </c>
       <c r="G8">
-        <v>0.9846177612558051</v>
+        <v>1.403282226101055</v>
       </c>
       <c r="H8">
-        <v>0.6605415697163011</v>
+        <v>1.294442924264871</v>
       </c>
       <c r="I8">
-        <v>0.3670390801151164</v>
+        <v>0.7122326431531576</v>
       </c>
       <c r="J8">
-        <v>0.09024995712743333</v>
+        <v>0.177143513304685</v>
       </c>
       <c r="K8">
-        <v>2.013375264145594</v>
+        <v>0.8289730399978907</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4934156429039049</v>
+        <v>0.3270627893456535</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2524197267551074</v>
+        <v>0.08106703729447418</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07883576571120443</v>
+        <v>0.1135028544769412</v>
       </c>
       <c r="E9">
-        <v>0.07925173145569175</v>
+        <v>0.1316101475759375</v>
       </c>
       <c r="F9">
-        <v>1.443212672316719</v>
+        <v>2.072724038720381</v>
       </c>
       <c r="G9">
-        <v>1.141583881683687</v>
+        <v>1.417792515228541</v>
       </c>
       <c r="H9">
-        <v>0.7130617222621112</v>
+        <v>1.287760410629048</v>
       </c>
       <c r="I9">
-        <v>0.3314802398132777</v>
+        <v>0.6937359122345264</v>
       </c>
       <c r="J9">
-        <v>0.09967810766116258</v>
+        <v>0.1769282409708595</v>
       </c>
       <c r="K9">
-        <v>2.724616994098085</v>
+        <v>1.026020203263499</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6628445633259545</v>
+        <v>0.3703634871004056</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2978067603716283</v>
+        <v>0.0957789820619297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09096705732722654</v>
+        <v>0.1161493094045625</v>
       </c>
       <c r="E10">
-        <v>0.08805990411889653</v>
+        <v>0.1327735989355894</v>
       </c>
       <c r="F10">
-        <v>1.591651164167715</v>
+        <v>2.086840367733004</v>
       </c>
       <c r="G10">
-        <v>1.271838526620087</v>
+        <v>1.432866463990649</v>
       </c>
       <c r="H10">
-        <v>0.7596467864611895</v>
+        <v>1.285899411413311</v>
       </c>
       <c r="I10">
-        <v>0.3093130181940786</v>
+        <v>0.6817538993323495</v>
       </c>
       <c r="J10">
-        <v>0.1075537431217839</v>
+        <v>0.1771596975920957</v>
       </c>
       <c r="K10">
-        <v>3.25741365567302</v>
+        <v>1.17187948696386</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7904426463539664</v>
+        <v>0.4028700383104606</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3184963784209742</v>
+        <v>0.102455441943647</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09656409298862911</v>
+        <v>0.1173865390109157</v>
       </c>
       <c r="E11">
-        <v>0.09220657827630774</v>
+        <v>0.1333570264216668</v>
       </c>
       <c r="F11">
-        <v>1.663463958051935</v>
+        <v>2.094476947512661</v>
       </c>
       <c r="G11">
-        <v>1.335026160837799</v>
+        <v>1.440689903902921</v>
       </c>
       <c r="H11">
-        <v>0.7828911576475264</v>
+        <v>1.285716524995848</v>
       </c>
       <c r="I11">
-        <v>0.3001812640573363</v>
+        <v>0.6766524474247646</v>
       </c>
       <c r="J11">
-        <v>0.1113793164901082</v>
+        <v>0.1773497126491463</v>
       </c>
       <c r="K11">
-        <v>3.502926235022244</v>
+        <v>1.238473389977287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8493967473900454</v>
+        <v>0.4178090409562216</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3263397369518941</v>
+        <v>0.1049811932824696</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09869627283518412</v>
+        <v>0.117859802532962</v>
       </c>
       <c r="E12">
-        <v>0.09379893692185703</v>
+        <v>0.1335857296730296</v>
       </c>
       <c r="F12">
-        <v>1.69134022486864</v>
+        <v>2.097543817875149</v>
       </c>
       <c r="G12">
-        <v>1.359582997704422</v>
+        <v>1.443791932915872</v>
       </c>
       <c r="H12">
-        <v>0.7920174487004488</v>
+        <v>1.285742830607575</v>
       </c>
       <c r="I12">
-        <v>0.2968688146414316</v>
+        <v>0.6747709257714227</v>
       </c>
       <c r="J12">
-        <v>0.1128662620220595</v>
+        <v>0.1774338554014463</v>
       </c>
       <c r="K12">
-        <v>3.596429922900654</v>
+        <v>1.26372539129369</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8718728145727468</v>
+        <v>0.4234878022933017</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3246501026838757</v>
+        <v>0.1044373404476602</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09823648064968893</v>
+        <v>0.1177576661256055</v>
       </c>
       <c r="E13">
-        <v>0.09345497714239315</v>
+        <v>0.1335361289510111</v>
       </c>
       <c r="F13">
-        <v>1.685305110200034</v>
+        <v>2.096875520888261</v>
       </c>
       <c r="G13">
-        <v>1.354265192174836</v>
+        <v>1.443117644544913</v>
       </c>
       <c r="H13">
-        <v>0.7900370300055499</v>
+        <v>1.285732913158085</v>
       </c>
       <c r="I13">
-        <v>0.2975755914793403</v>
+        <v>0.6751739074710947</v>
       </c>
       <c r="J13">
-        <v>0.1125442622488109</v>
+        <v>0.1774151916009998</v>
       </c>
       <c r="K13">
-        <v>3.576267118462397</v>
+        <v>1.258285400689829</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8670251053326581</v>
+        <v>0.4222638167972264</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3191414678618827</v>
+        <v>0.1026632876646829</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09673924547460899</v>
+        <v>0.1174253797043718</v>
       </c>
       <c r="E14">
-        <v>0.0923371274919198</v>
+        <v>0.1333756863133182</v>
       </c>
       <c r="F14">
-        <v>1.665743281211661</v>
+        <v>2.094725750243612</v>
       </c>
       <c r="G14">
-        <v>1.337033474911607</v>
+        <v>1.440942311681653</v>
       </c>
       <c r="H14">
-        <v>0.7836353105163028</v>
+        <v>1.285716773285372</v>
       </c>
       <c r="I14">
-        <v>0.2999057778664991</v>
+        <v>0.6764966452732395</v>
       </c>
       <c r="J14">
-        <v>0.1115008608021668</v>
+        <v>0.1773563908261053</v>
       </c>
       <c r="K14">
-        <v>3.510607652270608</v>
+        <v>1.240550201629333</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8512427063758139</v>
+        <v>0.4182758021203057</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3157684739846189</v>
+        <v>0.1015763013165696</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09582384462922278</v>
+        <v>0.1172224621874847</v>
       </c>
       <c r="E15">
-        <v>0.09165535325773888</v>
+        <v>0.133278422188603</v>
       </c>
       <c r="F15">
-        <v>1.65385201442426</v>
+        <v>2.093431762473699</v>
       </c>
       <c r="G15">
-        <v>1.326562455083717</v>
+        <v>1.439628035045928</v>
       </c>
       <c r="H15">
-        <v>0.7797571949694486</v>
+        <v>1.285719335648224</v>
       </c>
       <c r="I15">
-        <v>0.3013523072377993</v>
+        <v>0.6773134113401582</v>
       </c>
       <c r="J15">
-        <v>0.1108668378378823</v>
+        <v>0.1773219610634555</v>
       </c>
       <c r="K15">
-        <v>3.470461362591834</v>
+        <v>1.229691338947021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8415959002995521</v>
+        <v>0.4158358486375349</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2964557149924332</v>
+        <v>0.09534232186302916</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09060297513862281</v>
+        <v>0.1160691207954798</v>
       </c>
       <c r="E16">
-        <v>0.08779188920992453</v>
+        <v>0.1327365590836713</v>
       </c>
       <c r="F16">
-        <v>1.587049786555255</v>
+        <v>2.086365777786625</v>
       </c>
       <c r="G16">
-        <v>1.26779350803244</v>
+        <v>1.432374671126922</v>
       </c>
       <c r="H16">
-        <v>0.7581714311440066</v>
+        <v>1.285924729085593</v>
       </c>
       <c r="I16">
-        <v>0.3099296813669454</v>
+        <v>0.6820943244414615</v>
       </c>
       <c r="J16">
-        <v>0.1073089005843286</v>
+        <v>0.1771489849468395</v>
       </c>
       <c r="K16">
-        <v>3.24143883987864</v>
+        <v>1.167532246867722</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.78660987539768</v>
+        <v>0.4018967801532227</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2846206371210798</v>
+        <v>0.09151374015554836</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08742120519356433</v>
+        <v>0.1153700924587611</v>
       </c>
       <c r="E17">
-        <v>0.08545895184806085</v>
+        <v>0.1324180048652188</v>
       </c>
       <c r="F17">
-        <v>1.547211782588874</v>
+        <v>2.08234246089178</v>
       </c>
       <c r="G17">
-        <v>1.232791484853408</v>
+        <v>1.428172810167041</v>
       </c>
       <c r="H17">
-        <v>0.7454747537443609</v>
+        <v>1.28622080533475</v>
       </c>
       <c r="I17">
-        <v>0.3154414184859604</v>
+        <v>0.6851167540881882</v>
       </c>
       <c r="J17">
-        <v>0.1051907271091608</v>
+        <v>0.1770645730593969</v>
       </c>
       <c r="K17">
-        <v>3.10180106495477</v>
+        <v>1.129461272616027</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.753124688597552</v>
+        <v>0.3933843606467988</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2778172829772814</v>
+        <v>0.08931013783053743</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08559842666823414</v>
+        <v>0.1149711709048589</v>
       </c>
       <c r="E18">
-        <v>0.08413013595794894</v>
+        <v>0.1322398804411691</v>
       </c>
       <c r="F18">
-        <v>1.524697275532091</v>
+        <v>2.080142695048636</v>
       </c>
       <c r="G18">
-        <v>1.213025416233222</v>
+        <v>1.425846925315085</v>
       </c>
       <c r="H18">
-        <v>0.7383632685821624</v>
+        <v>1.286453562867962</v>
       </c>
       <c r="I18">
-        <v>0.3187006950199738</v>
+        <v>0.6868880423150294</v>
       </c>
       <c r="J18">
-        <v>0.1039950551633737</v>
+        <v>0.1770239959172741</v>
       </c>
       <c r="K18">
-        <v>3.021775381480467</v>
+        <v>1.107586638166623</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7339491116515049</v>
+        <v>0.38850251907634</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2755143763750851</v>
+        <v>0.08856378285372557</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0849824762548721</v>
+        <v>0.1148366437263135</v>
       </c>
       <c r="E19">
-        <v>0.08368240119170522</v>
+        <v>0.1321804469527379</v>
       </c>
       <c r="F19">
-        <v>1.517140918147916</v>
+        <v>2.079417519490931</v>
       </c>
       <c r="G19">
-        <v>1.206394022159373</v>
+        <v>1.4250750195027</v>
       </c>
       <c r="H19">
-        <v>0.7359874602982188</v>
+        <v>1.286543094830932</v>
       </c>
       <c r="I19">
-        <v>0.3198192771378139</v>
+        <v>0.6874934128467878</v>
       </c>
       <c r="J19">
-        <v>0.1035940132945044</v>
+        <v>0.1770116266488131</v>
       </c>
       <c r="K19">
-        <v>2.994727550948824</v>
+        <v>1.100184189152486</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7274704560700087</v>
+        <v>0.3868520670617244</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2858800835171422</v>
+        <v>0.09192145602443702</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08775914551645059</v>
+        <v>0.1154441804461328</v>
       </c>
       <c r="E20">
-        <v>0.0857059347365805</v>
+        <v>0.1324513878490094</v>
       </c>
       <c r="F20">
-        <v>1.551410827329519</v>
+        <v>2.082758913593992</v>
       </c>
       <c r="G20">
-        <v>1.236479173204515</v>
+        <v>1.428610692369318</v>
       </c>
       <c r="H20">
-        <v>0.746806335855041</v>
+        <v>1.286182822009039</v>
       </c>
       <c r="I20">
-        <v>0.3148454060034034</v>
+        <v>0.6847916092162478</v>
       </c>
       <c r="J20">
-        <v>0.1054138432543681</v>
+        <v>0.177072733499557</v>
       </c>
       <c r="K20">
-        <v>3.116635135398553</v>
+        <v>1.133511638031052</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7566803840710605</v>
+        <v>0.394289045469236</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3207592317705661</v>
+        <v>0.1031844385790919</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09717866295257949</v>
+        <v>0.1175228516696407</v>
       </c>
       <c r="E21">
-        <v>0.0926648503090739</v>
+        <v>0.1334226014143276</v>
       </c>
       <c r="F21">
-        <v>1.671469990854959</v>
+        <v>2.095352436027525</v>
       </c>
       <c r="G21">
-        <v>1.34207724059064</v>
+        <v>1.441577470557377</v>
       </c>
       <c r="H21">
-        <v>0.7855066082696567</v>
+        <v>1.28571891947928</v>
       </c>
       <c r="I21">
-        <v>0.2992173231715043</v>
+        <v>0.6761067597770172</v>
       </c>
       <c r="J21">
-        <v>0.111806265802322</v>
+        <v>0.1773733312150654</v>
       </c>
       <c r="K21">
-        <v>3.529878260770204</v>
+        <v>1.245758531040678</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8558740948289199</v>
+        <v>0.41944659108281</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3436065012294591</v>
+        <v>0.1105309219083779</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1034096695751572</v>
+        <v>0.1189090591817177</v>
       </c>
       <c r="E22">
-        <v>0.0973428007069117</v>
+        <v>0.1341026384548663</v>
       </c>
       <c r="F22">
-        <v>1.753947892824954</v>
+        <v>2.104603598139121</v>
       </c>
       <c r="G22">
-        <v>1.414792205287</v>
+        <v>1.450865144451427</v>
       </c>
       <c r="H22">
-        <v>0.8127044235465917</v>
+        <v>1.285972791725982</v>
       </c>
       <c r="I22">
-        <v>0.289856375815738</v>
+        <v>0.6707238547216043</v>
       </c>
       <c r="J22">
-        <v>0.1162090193414969</v>
+        <v>0.1776408336449649</v>
       </c>
       <c r="K22">
-        <v>3.803109558493588</v>
+        <v>1.319318304687215</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9215966547214407</v>
+        <v>0.4360148475819514</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3314068696155203</v>
+        <v>0.1066113495996177</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1000767133908624</v>
+        <v>0.1181666960139722</v>
       </c>
       <c r="E23">
-        <v>0.09483349549153886</v>
+        <v>0.1337355512588445</v>
       </c>
       <c r="F23">
-        <v>1.709537335627616</v>
+        <v>2.099572580749992</v>
       </c>
       <c r="G23">
-        <v>1.375621704517897</v>
+        <v>1.44583356383049</v>
       </c>
       <c r="H23">
-        <v>0.7980038042636011</v>
+        <v>1.285786283332669</v>
       </c>
       <c r="I23">
-        <v>0.2947714045485128</v>
+        <v>0.673569966651911</v>
       </c>
       <c r="J23">
-        <v>0.1138374138115452</v>
+        <v>0.1774915603080771</v>
       </c>
       <c r="K23">
-        <v>3.656963193207559</v>
+        <v>1.280039914797783</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.886430135597621</v>
+        <v>0.4271605342969735</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2853106855271932</v>
+        <v>0.09173713545423823</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08760634267042633</v>
+        <v>0.1154106760475173</v>
       </c>
       <c r="E24">
-        <v>0.0855942352334722</v>
+        <v>0.1324362797747831</v>
       </c>
       <c r="F24">
-        <v>1.54951123278758</v>
+        <v>2.082570282441978</v>
       </c>
       <c r="G24">
-        <v>1.234810861848729</v>
+        <v>1.428412446069956</v>
       </c>
       <c r="H24">
-        <v>0.7462037441503071</v>
+        <v>1.286199799461826</v>
       </c>
       <c r="I24">
-        <v>0.3151145819853767</v>
+        <v>0.6849385023870731</v>
       </c>
       <c r="J24">
-        <v>0.1053129038763672</v>
+        <v>0.1770690193942386</v>
       </c>
       <c r="K24">
-        <v>3.109927867286331</v>
+        <v>1.131680427692686</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7550726205127347</v>
+        <v>0.393879999882067</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2357279768630747</v>
+        <v>0.07563604023683013</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07442907400051268</v>
+        <v>0.1125581169657011</v>
       </c>
       <c r="E25">
-        <v>0.07611961029220993</v>
+        <v>0.1312298335637117</v>
       </c>
       <c r="F25">
-        <v>1.391945387721648</v>
+        <v>2.068600442650336</v>
       </c>
       <c r="G25">
-        <v>1.096715307159187</v>
+        <v>1.413094564459058</v>
       </c>
       <c r="H25">
-        <v>0.6975481350041548</v>
+        <v>1.289033378961207</v>
       </c>
       <c r="I25">
-        <v>0.3404344608431984</v>
+        <v>0.6984576094444712</v>
       </c>
       <c r="J25">
-        <v>0.09697252250171573</v>
+        <v>0.1769180900739684</v>
       </c>
       <c r="K25">
-        <v>2.530691641739395</v>
+        <v>0.9725229694703046</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6165339596877288</v>
+        <v>0.3585277394440567</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06373535780666373</v>
+        <v>0.1992499629611899</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1105622423820307</v>
+        <v>0.06491358664199254</v>
       </c>
       <c r="E2">
-        <v>0.1305095714418165</v>
+        <v>0.06949863395448119</v>
       </c>
       <c r="F2">
-        <v>2.062054749532066</v>
+        <v>1.286695028506202</v>
       </c>
       <c r="G2">
-        <v>1.404779461910749</v>
+        <v>1.004807144498727</v>
       </c>
       <c r="H2">
-        <v>1.29316765982486</v>
+        <v>0.6669774735410101</v>
       </c>
       <c r="I2">
-        <v>0.7094912232465749</v>
+        <v>0.3616995299805126</v>
       </c>
       <c r="J2">
-        <v>0.1770687509714222</v>
+        <v>0.09145512346897533</v>
       </c>
       <c r="K2">
-        <v>0.8560735063490768</v>
+        <v>2.1107602839989</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.332965455317364</v>
+        <v>0.5165406436912363</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05564371336471652</v>
+        <v>0.1745069075364256</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1092753594752054</v>
+        <v>0.0585598874556581</v>
       </c>
       <c r="E3">
-        <v>0.1301264615969799</v>
+        <v>0.06520303661388738</v>
       </c>
       <c r="F3">
-        <v>2.059943352326599</v>
+        <v>1.221117051947346</v>
       </c>
       <c r="G3">
-        <v>1.400981167369281</v>
+        <v>0.9476908557756474</v>
       </c>
       <c r="H3">
-        <v>1.297244483789953</v>
+        <v>0.6491152732977383</v>
       </c>
       <c r="I3">
-        <v>0.7176417261615775</v>
+        <v>0.3776200372789926</v>
       </c>
       <c r="J3">
-        <v>0.1773339975732675</v>
+        <v>0.0880554100040456</v>
       </c>
       <c r="K3">
-        <v>0.7776106007464989</v>
+        <v>1.829047754143119</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3159326368201292</v>
+        <v>0.4497213666579114</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05066315748612737</v>
+        <v>0.1592922689790157</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1085178633983261</v>
+        <v>0.0546992060285163</v>
       </c>
       <c r="E4">
-        <v>0.1299431200080612</v>
+        <v>0.06265098413432213</v>
       </c>
       <c r="F4">
-        <v>2.059791149125132</v>
+        <v>1.18340042843586</v>
       </c>
       <c r="G4">
-        <v>1.399551506373555</v>
+        <v>0.9148953491439755</v>
       </c>
       <c r="H4">
-        <v>1.300375854579613</v>
+        <v>0.6394304120611025</v>
       </c>
       <c r="I4">
-        <v>0.7229778924830352</v>
+        <v>0.3881010016855146</v>
       </c>
       <c r="J4">
-        <v>0.1775772976281544</v>
+        <v>0.08612057745322232</v>
       </c>
       <c r="K4">
-        <v>0.7296589774029485</v>
+        <v>1.657136813589574</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3056180672578677</v>
+        <v>0.4090698857155317</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04863061858779361</v>
+        <v>0.1530850751598933</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1082174330743513</v>
+        <v>0.05313528559356229</v>
       </c>
       <c r="E5">
-        <v>0.1298814747469059</v>
+        <v>0.06163126130787688</v>
       </c>
       <c r="F5">
-        <v>2.06001658751758</v>
+        <v>1.168631743856395</v>
       </c>
       <c r="G5">
-        <v>1.399195413742618</v>
+        <v>0.9020646793782987</v>
       </c>
       <c r="H5">
-        <v>1.301809805250599</v>
+        <v>0.6357888944176295</v>
       </c>
       <c r="I5">
-        <v>0.7252357971763725</v>
+        <v>0.3925440832621998</v>
       </c>
       <c r="J5">
-        <v>0.1776966719224262</v>
+        <v>0.08536844524866538</v>
       </c>
       <c r="K5">
-        <v>0.7101752811983602</v>
+        <v>1.587300383002543</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3014510367023249</v>
+        <v>0.3925862293758442</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04829294528398975</v>
+        <v>0.1520539046392599</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1081680467620174</v>
+        <v>0.05287613810401126</v>
       </c>
       <c r="E6">
-        <v>0.1298720284591361</v>
+        <v>0.06146312614798966</v>
       </c>
       <c r="F6">
-        <v>2.060071375975483</v>
+        <v>1.166214608565198</v>
       </c>
       <c r="G6">
-        <v>1.399149952486127</v>
+        <v>0.8999653260335236</v>
       </c>
       <c r="H6">
-        <v>1.302057445912453</v>
+        <v>0.6352021655225712</v>
       </c>
       <c r="I6">
-        <v>0.7256157548817654</v>
+        <v>0.3932920882170308</v>
       </c>
       <c r="J6">
-        <v>0.1777177156588969</v>
+        <v>0.08524569089858502</v>
       </c>
       <c r="K6">
-        <v>0.7069434824305461</v>
+        <v>1.575715954474532</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3007612968267708</v>
+        <v>0.3898537469516299</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05063575757456817</v>
+        <v>0.1592085872577513</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1085137782050225</v>
+        <v>0.05467807771925237</v>
       </c>
       <c r="E7">
-        <v>0.1299422357000459</v>
+        <v>0.06263715133900405</v>
       </c>
       <c r="F7">
-        <v>2.059793025888609</v>
+        <v>1.183198869451203</v>
       </c>
       <c r="G7">
-        <v>1.399545787454102</v>
+        <v>0.9147201976505812</v>
       </c>
       <c r="H7">
-        <v>1.300394554141619</v>
+        <v>0.6393800879446587</v>
       </c>
       <c r="I7">
-        <v>0.7230080058556414</v>
+        <v>0.3881602331927532</v>
       </c>
       <c r="J7">
-        <v>0.1775788256498565</v>
+        <v>0.08611028945921007</v>
       </c>
       <c r="K7">
-        <v>0.7293959821861336</v>
+        <v>1.656194151126499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3055617223321718</v>
+        <v>0.4088472644651233</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0609479947546987</v>
+        <v>0.1907222430387776</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1101117733029753</v>
+        <v>0.06271389064552579</v>
       </c>
       <c r="E8">
-        <v>0.1303667170214169</v>
+        <v>0.06799900877900455</v>
       </c>
       <c r="F8">
-        <v>2.061089099000938</v>
+        <v>1.263530100517272</v>
       </c>
       <c r="G8">
-        <v>1.403282226101055</v>
+        <v>0.9846177612557909</v>
       </c>
       <c r="H8">
-        <v>1.294442924264871</v>
+        <v>0.6605415697161874</v>
       </c>
       <c r="I8">
-        <v>0.7122326431531576</v>
+        <v>0.3670390801151004</v>
       </c>
       <c r="J8">
-        <v>0.177143513304685</v>
+        <v>0.09024995712744754</v>
       </c>
       <c r="K8">
-        <v>0.8289730399978907</v>
+        <v>2.013375264145651</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3270627893456535</v>
+        <v>0.4934156429038907</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08106703729447418</v>
+        <v>0.2524197267552353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1135028544769412</v>
+        <v>0.07883576571119733</v>
       </c>
       <c r="E9">
-        <v>0.1316101475759375</v>
+        <v>0.07925173145569175</v>
       </c>
       <c r="F9">
-        <v>2.072724038720381</v>
+        <v>1.443212672316704</v>
       </c>
       <c r="G9">
-        <v>1.417792515228541</v>
+        <v>1.141583881683601</v>
       </c>
       <c r="H9">
-        <v>1.287760410629048</v>
+        <v>0.713061722262097</v>
       </c>
       <c r="I9">
-        <v>0.6937359122345264</v>
+        <v>0.3314802398132741</v>
       </c>
       <c r="J9">
-        <v>0.1769282409708595</v>
+        <v>0.09967810766116969</v>
       </c>
       <c r="K9">
-        <v>1.026020203263499</v>
+        <v>2.724616994098142</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3703634871004056</v>
+        <v>0.6628445633259474</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0957789820619297</v>
+        <v>0.2978067603716141</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1161493094045625</v>
+        <v>0.09096705732725496</v>
       </c>
       <c r="E10">
-        <v>0.1327735989355894</v>
+        <v>0.08805990411889297</v>
       </c>
       <c r="F10">
-        <v>2.086840367733004</v>
+        <v>1.591651164167729</v>
       </c>
       <c r="G10">
-        <v>1.432866463990649</v>
+        <v>1.27183852662003</v>
       </c>
       <c r="H10">
-        <v>1.285899411413311</v>
+        <v>0.7596467864610759</v>
       </c>
       <c r="I10">
-        <v>0.6817538993323495</v>
+        <v>0.3093130181940609</v>
       </c>
       <c r="J10">
-        <v>0.1771596975920957</v>
+        <v>0.1075537431217199</v>
       </c>
       <c r="K10">
-        <v>1.17187948696386</v>
+        <v>3.257413655672906</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4028700383104606</v>
+        <v>0.7904426463539593</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.102455441943647</v>
+        <v>0.3184963784210026</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1173865390109157</v>
+        <v>0.09656409298845148</v>
       </c>
       <c r="E11">
-        <v>0.1333570264216668</v>
+        <v>0.0922065782763184</v>
       </c>
       <c r="F11">
-        <v>2.094476947512661</v>
+        <v>1.663463958051935</v>
       </c>
       <c r="G11">
-        <v>1.440689903902921</v>
+        <v>1.335026160837828</v>
       </c>
       <c r="H11">
-        <v>1.285716524995848</v>
+        <v>0.7828911576475548</v>
       </c>
       <c r="I11">
-        <v>0.6766524474247646</v>
+        <v>0.3001812640573505</v>
       </c>
       <c r="J11">
-        <v>0.1773497126491463</v>
+        <v>0.1113793164901651</v>
       </c>
       <c r="K11">
-        <v>1.238473389977287</v>
+        <v>3.502926235022187</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4178090409562216</v>
+        <v>0.8493967473900454</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1049811932824696</v>
+        <v>0.3263397369518088</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.117859802532962</v>
+        <v>0.09869627283509885</v>
       </c>
       <c r="E12">
-        <v>0.1335857296730296</v>
+        <v>0.09379893692185348</v>
       </c>
       <c r="F12">
-        <v>2.097543817875149</v>
+        <v>1.691340224868611</v>
       </c>
       <c r="G12">
-        <v>1.443791932915872</v>
+        <v>1.359582997704479</v>
       </c>
       <c r="H12">
-        <v>1.285742830607575</v>
+        <v>0.7920174487003067</v>
       </c>
       <c r="I12">
-        <v>0.6747709257714227</v>
+        <v>0.296868814641428</v>
       </c>
       <c r="J12">
-        <v>0.1774338554014463</v>
+        <v>0.1128662620220524</v>
       </c>
       <c r="K12">
-        <v>1.26372539129369</v>
+        <v>3.596429922900654</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4234878022933017</v>
+        <v>0.8718728145727397</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1044373404476602</v>
+        <v>0.3246501026838615</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1177576661256055</v>
+        <v>0.09823648064980972</v>
       </c>
       <c r="E13">
-        <v>0.1335361289510111</v>
+        <v>0.09345497714239315</v>
       </c>
       <c r="F13">
-        <v>2.096875520888261</v>
+        <v>1.685305110200034</v>
       </c>
       <c r="G13">
-        <v>1.443117644544913</v>
+        <v>1.354265192174836</v>
       </c>
       <c r="H13">
-        <v>1.285732913158085</v>
+        <v>0.7900370300055499</v>
       </c>
       <c r="I13">
-        <v>0.6751739074710947</v>
+        <v>0.2975755914793652</v>
       </c>
       <c r="J13">
-        <v>0.1774151916009998</v>
+        <v>0.112544262248818</v>
       </c>
       <c r="K13">
-        <v>1.258285400689829</v>
+        <v>3.57626711846234</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4222638167972264</v>
+        <v>0.8670251053326297</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1026632876646829</v>
+        <v>0.3191414678617832</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1174253797043718</v>
+        <v>0.09673924547431767</v>
       </c>
       <c r="E14">
-        <v>0.1333756863133182</v>
+        <v>0.09233712749193401</v>
       </c>
       <c r="F14">
-        <v>2.094725750243612</v>
+        <v>1.665743281211675</v>
       </c>
       <c r="G14">
-        <v>1.440942311681653</v>
+        <v>1.337033474911578</v>
       </c>
       <c r="H14">
-        <v>1.285716773285372</v>
+        <v>0.7836353105163028</v>
       </c>
       <c r="I14">
-        <v>0.6764966452732395</v>
+        <v>0.2999057778664991</v>
       </c>
       <c r="J14">
-        <v>0.1773563908261053</v>
+        <v>0.1115008608022308</v>
       </c>
       <c r="K14">
-        <v>1.240550201629333</v>
+        <v>3.510607652270608</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4182758021203057</v>
+        <v>0.8512427063758139</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1015763013165696</v>
+        <v>0.3157684739846189</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1172224621874847</v>
+        <v>0.09582384462933646</v>
       </c>
       <c r="E15">
-        <v>0.133278422188603</v>
+        <v>0.09165535325774954</v>
       </c>
       <c r="F15">
-        <v>2.093431762473699</v>
+        <v>1.653852014424288</v>
       </c>
       <c r="G15">
-        <v>1.439628035045928</v>
+        <v>1.326562455083831</v>
       </c>
       <c r="H15">
-        <v>1.285719335648224</v>
+        <v>0.7797571949694486</v>
       </c>
       <c r="I15">
-        <v>0.6773134113401582</v>
+        <v>0.3013523072377851</v>
       </c>
       <c r="J15">
-        <v>0.1773219610634555</v>
+        <v>0.1108668378377757</v>
       </c>
       <c r="K15">
-        <v>1.229691338947021</v>
+        <v>3.470461362591777</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4158358486375349</v>
+        <v>0.8415959002995663</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.09534232186302916</v>
+        <v>0.2964557149923479</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1160691207954798</v>
+        <v>0.09060297513862281</v>
       </c>
       <c r="E16">
-        <v>0.1327365590836713</v>
+        <v>0.08779188920993874</v>
       </c>
       <c r="F16">
-        <v>2.086365777786625</v>
+        <v>1.587049786555241</v>
       </c>
       <c r="G16">
-        <v>1.432374671126922</v>
+        <v>1.267793508032497</v>
       </c>
       <c r="H16">
-        <v>1.285924729085593</v>
+        <v>0.7581714311440066</v>
       </c>
       <c r="I16">
-        <v>0.6820943244414615</v>
+        <v>0.309929681366949</v>
       </c>
       <c r="J16">
-        <v>0.1771489849468395</v>
+        <v>0.1073089005843215</v>
       </c>
       <c r="K16">
-        <v>1.167532246867722</v>
+        <v>3.24143883987864</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4018967801532227</v>
+        <v>0.7866098753976871</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09151374015554836</v>
+        <v>0.2846206371211935</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1153700924587611</v>
+        <v>0.08742120519355723</v>
       </c>
       <c r="E17">
-        <v>0.1324180048652188</v>
+        <v>0.08545895184806085</v>
       </c>
       <c r="F17">
-        <v>2.08234246089178</v>
+        <v>1.547211782588874</v>
       </c>
       <c r="G17">
-        <v>1.428172810167041</v>
+        <v>1.232791484853379</v>
       </c>
       <c r="H17">
-        <v>1.28622080533475</v>
+        <v>0.7454747537444746</v>
       </c>
       <c r="I17">
-        <v>0.6851167540881882</v>
+        <v>0.3154414184859462</v>
       </c>
       <c r="J17">
-        <v>0.1770645730593969</v>
+        <v>0.1051907271090968</v>
       </c>
       <c r="K17">
-        <v>1.129461272616027</v>
+        <v>3.101801064954714</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3933843606467988</v>
+        <v>0.7531246885975449</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08931013783053743</v>
+        <v>0.2778172829771535</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1149711709048589</v>
+        <v>0.0855984266684473</v>
       </c>
       <c r="E18">
-        <v>0.1322398804411691</v>
+        <v>0.08413013595795249</v>
       </c>
       <c r="F18">
-        <v>2.080142695048636</v>
+        <v>1.524697275532091</v>
       </c>
       <c r="G18">
-        <v>1.425846925315085</v>
+        <v>1.213025416233165</v>
       </c>
       <c r="H18">
-        <v>1.286453562867962</v>
+        <v>0.7383632685821624</v>
       </c>
       <c r="I18">
-        <v>0.6868880423150294</v>
+        <v>0.3187006950199915</v>
       </c>
       <c r="J18">
-        <v>0.1770239959172741</v>
+        <v>0.1039950551633808</v>
       </c>
       <c r="K18">
-        <v>1.107586638166623</v>
+        <v>3.02177538148041</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.38850251907634</v>
+        <v>0.7339491116514978</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.08856378285372557</v>
+        <v>0.2755143763750851</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1148366437263135</v>
+        <v>0.08498247625494315</v>
       </c>
       <c r="E19">
-        <v>0.1321804469527379</v>
+        <v>0.08368240119172299</v>
       </c>
       <c r="F19">
-        <v>2.079417519490931</v>
+        <v>1.517140918147916</v>
       </c>
       <c r="G19">
-        <v>1.4250750195027</v>
+        <v>1.206394022159344</v>
       </c>
       <c r="H19">
-        <v>1.286543094830932</v>
+        <v>0.7359874602982188</v>
       </c>
       <c r="I19">
-        <v>0.6874934128467878</v>
+        <v>0.3198192771378068</v>
       </c>
       <c r="J19">
-        <v>0.1770116266488131</v>
+        <v>0.1035940132945683</v>
       </c>
       <c r="K19">
-        <v>1.100184189152486</v>
+        <v>2.994727550948738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3868520670617244</v>
+        <v>0.7274704560700158</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09192145602443702</v>
+        <v>0.2858800835172843</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1154441804461328</v>
+        <v>0.08775914551644348</v>
       </c>
       <c r="E20">
-        <v>0.1324513878490094</v>
+        <v>0.08570593473656629</v>
       </c>
       <c r="F20">
-        <v>2.082758913593992</v>
+        <v>1.551410827329491</v>
       </c>
       <c r="G20">
-        <v>1.428610692369318</v>
+        <v>1.236479173204486</v>
       </c>
       <c r="H20">
-        <v>1.286182822009039</v>
+        <v>0.746806335855041</v>
       </c>
       <c r="I20">
-        <v>0.6847916092162478</v>
+        <v>0.3148454060033856</v>
       </c>
       <c r="J20">
-        <v>0.177072733499557</v>
+        <v>0.1054138432543823</v>
       </c>
       <c r="K20">
-        <v>1.133511638031052</v>
+        <v>3.116635135398496</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.394289045469236</v>
+        <v>0.7566803840710605</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1031844385790919</v>
+        <v>0.3207592317704524</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1175228516696407</v>
+        <v>0.09717866295240896</v>
       </c>
       <c r="E21">
-        <v>0.1334226014143276</v>
+        <v>0.09266485030906679</v>
       </c>
       <c r="F21">
-        <v>2.095352436027525</v>
+        <v>1.671469990854959</v>
       </c>
       <c r="G21">
-        <v>1.441577470557377</v>
+        <v>1.34207724059064</v>
       </c>
       <c r="H21">
-        <v>1.28571891947928</v>
+        <v>0.7855066082696567</v>
       </c>
       <c r="I21">
-        <v>0.6761067597770172</v>
+        <v>0.299217323171483</v>
       </c>
       <c r="J21">
-        <v>0.1773733312150654</v>
+        <v>0.1118062658023575</v>
       </c>
       <c r="K21">
-        <v>1.245758531040678</v>
+        <v>3.529878260770261</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.41944659108281</v>
+        <v>0.855874094828927</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1105309219083779</v>
+        <v>0.3436065012294591</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1189090591817177</v>
+        <v>0.103409669575143</v>
       </c>
       <c r="E22">
-        <v>0.1341026384548663</v>
+        <v>0.0973428007069117</v>
       </c>
       <c r="F22">
-        <v>2.104603598139121</v>
+        <v>1.753947892824954</v>
       </c>
       <c r="G22">
-        <v>1.450865144451427</v>
+        <v>1.414792205287029</v>
       </c>
       <c r="H22">
-        <v>1.285972791725982</v>
+        <v>0.8127044235465632</v>
       </c>
       <c r="I22">
-        <v>0.6707238547216043</v>
+        <v>0.2898563758157486</v>
       </c>
       <c r="J22">
-        <v>0.1776408336449649</v>
+        <v>0.1162090193415182</v>
       </c>
       <c r="K22">
-        <v>1.319318304687215</v>
+        <v>3.803109558493588</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4360148475819514</v>
+        <v>0.9215966547214407</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1066113495996177</v>
+        <v>0.3314068696155061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1181666960139722</v>
+        <v>0.1000767133908838</v>
       </c>
       <c r="E23">
-        <v>0.1337355512588445</v>
+        <v>0.09483349549154241</v>
       </c>
       <c r="F23">
-        <v>2.099572580749992</v>
+        <v>1.70953733562763</v>
       </c>
       <c r="G23">
-        <v>1.44583356383049</v>
+        <v>1.375621704517926</v>
       </c>
       <c r="H23">
-        <v>1.285786283332669</v>
+        <v>0.7980038042637148</v>
       </c>
       <c r="I23">
-        <v>0.673569966651911</v>
+        <v>0.2947714045485164</v>
       </c>
       <c r="J23">
-        <v>0.1774915603080771</v>
+        <v>0.1138374138115879</v>
       </c>
       <c r="K23">
-        <v>1.280039914797783</v>
+        <v>3.656963193207446</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4271605342969735</v>
+        <v>0.8864301355976139</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09173713545423823</v>
+        <v>0.2853106855271932</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1154106760475173</v>
+        <v>0.08760634267029843</v>
       </c>
       <c r="E24">
-        <v>0.1324362797747831</v>
+        <v>0.0855942352334651</v>
       </c>
       <c r="F24">
-        <v>2.082570282441978</v>
+        <v>1.54951123278758</v>
       </c>
       <c r="G24">
-        <v>1.428412446069956</v>
+        <v>1.234810861848814</v>
       </c>
       <c r="H24">
-        <v>1.286199799461826</v>
+        <v>0.7462037441503071</v>
       </c>
       <c r="I24">
-        <v>0.6849385023870731</v>
+        <v>0.3151145819853909</v>
       </c>
       <c r="J24">
-        <v>0.1770690193942386</v>
+        <v>0.1053129038763458</v>
       </c>
       <c r="K24">
-        <v>1.131680427692686</v>
+        <v>3.109927867286217</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.393879999882067</v>
+        <v>0.7550726205127489</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.07563604023683013</v>
+        <v>0.2357279768631741</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1125581169657011</v>
+        <v>0.07442907400075427</v>
       </c>
       <c r="E25">
-        <v>0.1312298335637117</v>
+        <v>0.07611961029221348</v>
       </c>
       <c r="F25">
-        <v>2.068600442650336</v>
+        <v>1.391945387721634</v>
       </c>
       <c r="G25">
-        <v>1.413094564459058</v>
+        <v>1.096715307159229</v>
       </c>
       <c r="H25">
-        <v>1.289033378961207</v>
+        <v>0.6975481350041548</v>
       </c>
       <c r="I25">
-        <v>0.6984576094444712</v>
+        <v>0.3404344608432055</v>
       </c>
       <c r="J25">
-        <v>0.1769180900739684</v>
+        <v>0.09697252250177257</v>
       </c>
       <c r="K25">
-        <v>0.9725229694703046</v>
+        <v>2.530691641739367</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3585277394440567</v>
+        <v>0.616533959687743</v>
       </c>
       <c r="N25">
         <v>0</v>
